--- a/training/results/ts/baseline/train_results.xlsx
+++ b/training/results/ts/baseline/train_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,6 +2626,778 @@
       </c>
       <c r="BM12" t="n">
         <v>0.9478646699944537</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7811064682966176</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8871617643088195</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4699652777777779</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5244207997820205</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7870559960515374</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.96723006336927</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.8203149801549809</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9250199967862158</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4322916666666667</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4992469932028994</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8556619944543707</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9563496145721888</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6432291666666666</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9484375</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8203149801549809</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9250199967862158</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.4322916666666667</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.4992469932028994</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.8556619944543707</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9563496145721888</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.6432291666666666</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9484375</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.8116983224490898</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9032501344694966</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.4203125</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.4733155012650528</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.8158608054191638</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9567713905577044</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.6557291666666667</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.8049327094028834</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.8963492567966421</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.409375</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.458635058059827</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.8034419901598927</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.9567056666575224</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.9505208333333334</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.8203149801549809</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.9250199967862158</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.4322916666666667</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.4992469932028994</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.8556619944543707</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.9563496145721888</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.6432291666666666</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.9484375</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.8155391876952736</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.9152104190380307</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.4276041666666667</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.4895751454182447</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.8376101111157677</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.9562827476476559</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.6463541666666667</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.8049327094028834</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.8963492567966421</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.409375</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.458635058059827</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.8034419901598927</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.9567056666575224</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.9505208333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7582216562035479</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8499535579682654</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4623501199040768</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.513089554191239</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7224210507029136</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9686676145333533</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.8034696939901788</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8965102248946653</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.423021582733813</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4866441980902734</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8037305833406833</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9575755403905495</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.6474820143884892</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9501199040767386</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8034696939901788</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8965102248946653</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.423021582733813</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.4866441980902734</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.8037305833406833</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9575755403905495</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.6474820143884892</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.9501199040767386</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.8061514100485475</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.8888900100820482</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.4282973621103118</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4808185213861749</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.7901254500236637</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.9561527718320881</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.6436450839328537</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.9482014388489208</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.7783028945619136</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.8558734812331958</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.3976019184652278</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.438638591359103</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.7325194158782296</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.9587184041747459</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.6690647482014388</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.9520383693045563</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.8034696939901788</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.8965102248946653</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.423021582733813</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.4866441980902734</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.8037305833406833</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.9575755403905495</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.6474820143884892</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.9501199040767386</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.7896209211012379</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.8737682780306006</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.407673860911271</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.4601502610510077</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.7634710036925609</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.9581372869963409</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.6599520383693046</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.9525179856115108</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.7783028945619136</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.8558734812331958</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.3976019184652278</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.438638591359103</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.7325194158782296</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.9587184041747459</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.6690647482014388</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.9520383693045563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7657271378218455</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8593292901287671</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4615852730868706</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.513414436797661</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7384468288732109</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9676123930391941</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.8067492567733963</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9041803130577547</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4198995892286627</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4866950292389303</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8175420385212193</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9569309022553422</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.6535828388863533</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9484253765403925</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8067492567733963</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.9041803130577547</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.4198995892286627</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.4866950292389303</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8175420385212193</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9569309022553422</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.6535828388863533</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9484253765403925</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.7936305083872431</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.8783558410386633</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.4125969876768599</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.4652049739315688</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.7715089834867375</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.9563060637853013</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.6558649018712917</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.9525330899132816</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.7835017185357193</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.8639868004291028</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.3957097215883159</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.4395780248883636</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.7464731913157183</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.9580173489209469</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.6741214057507987</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.9502510269283432</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.8067492567733963</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.9041803130577547</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.4198995892286627</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.4866950292389303</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.8175420385212193</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.9569309022553422</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.6535828388863533</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.9484253765403925</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.7947798652651844</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.8852722930170591</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.405294386125057</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.4650466288771816</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.7837070327836817</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.9574675437222382</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.6663623916020082</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.9497946143313556</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.7835017185357193</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.8639868004291028</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.3957097215883159</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.4395780248883636</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.7464731913157183</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.9580173489209469</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.6741214057507987</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.9502510269283432</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7722487543991696</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8605393354252798</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4623744669142936</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5047219373669025</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7405279478141822</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9672550736297453</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.8113413990847242</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9048818144034949</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4139496491952125</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.469610254438071</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.818811098038161</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9572723759207752</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6591002888980603</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.9496491952125464</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8113413990847242</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9048818144034949</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4139496491952125</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.469610254438071</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.818811098038161</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9572723759207752</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.6591002888980603</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.9496491952125464</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.8113413990847242</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.9037169293236799</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.4213784564589352</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.4765523615824282</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.816704288346221</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.9564986845813139</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.6529096161782914</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.9455220800660339</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.7922967965254969</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.8715882161676721</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.3974411886091622</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.4342930840075944</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.7596660185623447</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.9579603804066075</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.6723070573669006</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.9508873297565003</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.8113413990847242</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.9048818144034949</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.4139496491952125</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.469610254438071</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.818811098038161</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.9572723759207752</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.6591002888980603</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.9496491952125464</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.8085388297463479</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.8975105390193373</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.4102352455633512</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.4593146134177923</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.8055251676507814</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.9573093037279876</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.6628146925299215</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.9492364836978952</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.7922967965254969</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.8715882161676721</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.3974411886091622</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.4342930840075944</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.7596660185623447</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.9579603804066075</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.6723070573669006</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.9508873297565003</v>
       </c>
     </row>
   </sheetData>
